--- a/Table1.xlsx
+++ b/Table1.xlsx
@@ -1,96 +1,275 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MR.YALWA\Desktop\mobile\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="120" yWindow="90" windowWidth="23895" windowHeight="14535"/>
   </bookViews>
   <sheets>
-    <sheet sheetId="1" r:id="rId1" name="Table1"/>
+    <sheet name="Table1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="125725" fullCalcOnLoad="true"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="60">
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>COMPONY</t>
+  </si>
+  <si>
+    <t>FNAME</t>
+  </si>
+  <si>
+    <t>MIDDLE NAME</t>
+  </si>
+  <si>
+    <t>OTHER NAME</t>
+  </si>
+  <si>
+    <t>ADDRESS</t>
+  </si>
+  <si>
+    <t>STATE</t>
+  </si>
+  <si>
+    <t>LGA</t>
+  </si>
+  <si>
+    <t>PHONE NUMBER</t>
+  </si>
+  <si>
+    <t>MALE</t>
+  </si>
+  <si>
+    <t>FEMALE</t>
+  </si>
+  <si>
+    <t>BSPA</t>
+  </si>
+  <si>
+    <t>BSPM</t>
+  </si>
+  <si>
+    <t>QUANTITY</t>
+  </si>
+  <si>
+    <t>QUQLITY</t>
+  </si>
+  <si>
+    <t>PRICE BOUGHT</t>
+  </si>
+  <si>
+    <t>PRICE SOLD</t>
+  </si>
+  <si>
+    <t>EXPERIES</t>
+  </si>
+  <si>
+    <t>HAFSAT COLLECTION</t>
+  </si>
+  <si>
+    <t>.</t>
+  </si>
+  <si>
+    <t>UMAR</t>
+  </si>
+  <si>
+    <t>BATURE</t>
+  </si>
+  <si>
+    <t>ZARIA CITY</t>
+  </si>
+  <si>
+    <t>KADUNA</t>
+  </si>
+  <si>
+    <t>ZARIA</t>
+  </si>
+  <si>
+    <t>SPECIAL</t>
+  </si>
+  <si>
+    <t>OKACHE BANKING</t>
+  </si>
+  <si>
+    <t>MARY</t>
+  </si>
+  <si>
+    <t>KELECHI</t>
+  </si>
+  <si>
+    <t>OKACHE</t>
+  </si>
+  <si>
+    <t>ABUJA</t>
+  </si>
+  <si>
+    <t>NIGER</t>
+  </si>
+  <si>
+    <t>BOSSO</t>
+  </si>
+  <si>
+    <t>ORNIEY PRUDECTION</t>
+  </si>
+  <si>
+    <t>ZAINAB</t>
+  </si>
+  <si>
+    <t>ABUBAKAR</t>
+  </si>
+  <si>
+    <t>WUSASA</t>
+  </si>
+  <si>
+    <t>VARIETY BULIDING</t>
+  </si>
+  <si>
+    <t>KADIJA</t>
+  </si>
+  <si>
+    <t>VARIETY</t>
+  </si>
+  <si>
+    <t>DANDUME</t>
+  </si>
+  <si>
+    <t>KATSINA</t>
+  </si>
+  <si>
+    <t>FUNTUA</t>
+  </si>
+  <si>
+    <t>ZANGOS CLOTHING</t>
+  </si>
+  <si>
+    <t>HASSANA</t>
+  </si>
+  <si>
+    <t>MAHAMMUD</t>
+  </si>
+  <si>
+    <t>ZANGO</t>
+  </si>
+  <si>
+    <t>LAYOUT</t>
+  </si>
+  <si>
+    <t>BAKORI</t>
+  </si>
+  <si>
+    <t>INNOSON INTERPRISE</t>
+  </si>
+  <si>
+    <t>INNOCENT</t>
+  </si>
+  <si>
+    <t>MOSES</t>
+  </si>
+  <si>
+    <t>GQSHEM</t>
+  </si>
+  <si>
+    <t>LERE  SAMINAKA</t>
+  </si>
+  <si>
+    <t>zaria</t>
+  </si>
+  <si>
+    <t>INNOSON</t>
+  </si>
+  <si>
+    <t>GOSHEM</t>
+  </si>
+  <si>
+    <t>YAR KASUWA</t>
+  </si>
+  <si>
+    <t>abakkili made</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ABDULMUTALLIB </t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="$#,##0.00;($#,##0.00)"/>
-    <numFmt numFmtId="165" formatCode="dd-mmm-yy"/>
+    <numFmt numFmtId="164" formatCode="\$#,##0.00;\(\$#,##0.00\)"/>
+    <numFmt numFmtId="165" formatCode="dd\-mmm\-yy"/>
   </numFmts>
-  <fonts count="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="MS Sans Serif"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color rgb="FF000000" tint="0"/>
-      <name val="Arial"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF000000" tint="0"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF000000" tint="0"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF000000" tint="0"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF000000" tint="0"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF000000" tint="0"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF000000" tint="0"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF000000" tint="0"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF000000" tint="0"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF000000" tint="0"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor rgb="FF000000"/>
-        <bgColor rgb="FFFFFFFF"/>
-      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -140,14 +319,8 @@
         <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor rgb="FF000000"/>
-        <bgColor rgb="FFFFFFFF"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -156,10 +329,19 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -174,6 +356,7 @@
       <bottom style="thin">
         <color rgb="FFD0D7E5"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -188,6 +371,7 @@
       <bottom style="thin">
         <color rgb="FFD0D7E5"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -202,6 +386,7 @@
       <bottom style="thin">
         <color rgb="FFD0D7E5"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -216,6 +401,7 @@
       <bottom style="thin">
         <color rgb="FFD0D7E5"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -230,6 +416,7 @@
       <bottom style="thin">
         <color rgb="FFD0D7E5"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -244,6 +431,7 @@
       <bottom style="thin">
         <color rgb="FFD0D7E5"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -258,66 +446,40 @@
       <bottom style="thin">
         <color rgb="FFD0D7E5"/>
       </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFD0D7E5"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFD0D7E5"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFD0D7E5"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFD0D7E5"/>
-      </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyFill="1" applyProtection="1" applyAlignment="1" applyFont="1" xfId="0">
-      <alignment wrapText="0" vertical="center" horizontal="left"/>
-      <protection locked="1" hidden="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyFill="1" applyProtection="1" applyBorder="1" applyAlignment="1" applyFont="1" xfId="0">
-      <alignment wrapText="0" vertical="center" horizontal="center"/>
-      <protection locked="1" hidden="0"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" applyFill="1" applyProtection="1" applyBorder="1" applyAlignment="1" applyFont="1" xfId="0">
-      <alignment wrapText="0" vertical="center" horizontal="center"/>
-      <protection locked="1" hidden="0"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="3" applyFill="1" applyProtection="1" applyBorder="1" applyAlignment="1" applyFont="1" xfId="0">
-      <alignment wrapText="1" vertical="center" horizontal="right"/>
-      <protection locked="1" hidden="0"/>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="4" applyFill="1" applyProtection="1" applyBorder="1" applyAlignment="1" applyFont="1" xfId="0">
-      <alignment wrapText="1" vertical="center" horizontal="general"/>
-      <protection locked="1" hidden="0"/>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="5" applyFill="1" applyProtection="1" applyBorder="1" applyAlignment="1" applyFont="1" xfId="0">
-      <alignment wrapText="1" vertical="center" horizontal="general"/>
-      <protection locked="1" hidden="0"/>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="6" applyFill="1" applyProtection="1" applyBorder="1" applyAlignment="1" applyFont="1" xfId="0">
-      <alignment wrapText="1" vertical="center" horizontal="right"/>
-      <protection locked="1" hidden="0"/>
+    <xf numFmtId="164" fontId="8" fillId="8" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="7" applyFill="1" applyProtection="1" applyBorder="1" applyAlignment="1" applyFont="1" xfId="0">
-      <alignment wrapText="1" vertical="center" horizontal="right"/>
-      <protection locked="1" hidden="0"/>
+    <xf numFmtId="165" fontId="9" fillId="9" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="10" borderId="8" applyFill="1" applyProtection="1" applyBorder="1" applyAlignment="1" applyNumberFormat="1" applyFont="1" xfId="0">
-      <alignment wrapText="1" vertical="center" horizontal="right"/>
-      <protection locked="1" hidden="0"/>
-    </xf>
-    <xf numFmtId="165" fontId="10" fillId="11" borderId="9" applyFill="1" applyProtection="1" applyBorder="1" applyAlignment="1" applyNumberFormat="1" applyFont="1" xfId="0">
-      <alignment wrapText="1" vertical="center" horizontal="right"/>
-      <protection locked="1" hidden="0"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -325,6 +487,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -371,7 +541,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -403,9 +573,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -437,6 +608,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -612,628 +784,474 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0" rightToLeft="false">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col customWidth="true" min="1" max="1" width="14.0625"/>
-    <col customWidth="true" min="2" max="2" width="21.23828125"/>
-    <col customWidth="true" min="3" max="3" width="13.18359375"/>
-    <col customWidth="true" min="4" max="4" width="14.0625"/>
-    <col customWidth="true" min="5" max="5" width="14.0625"/>
-    <col customWidth="true" min="6" max="6" width="14.0625"/>
-    <col customWidth="true" min="7" max="7" width="9.08203125"/>
-    <col customWidth="true" min="8" max="8" width="8.640625"/>
-    <col customWidth="true" min="9" max="9" width="16.2578125"/>
-    <col customWidth="true" min="10" max="10" width="8.640625"/>
-    <col customWidth="true" min="11" max="11" width="9.2265625"/>
-    <col customWidth="true" min="12" max="12" width="14.0625"/>
-    <col customWidth="true" min="13" max="13" width="14.0625"/>
-    <col customWidth="true" min="14" max="14" width="12.01171875"/>
-    <col customWidth="true" min="15" max="15" width="12.01171875"/>
-    <col customWidth="true" min="16" max="16" width="14.0625"/>
-    <col customWidth="true" min="17" max="17" width="14.0625"/>
-    <col customWidth="true" min="18" max="18" width="14.0625"/>
+    <col min="1" max="1" width="14" customWidth="1"/>
+    <col min="2" max="2" width="21.28515625" customWidth="1"/>
+    <col min="3" max="3" width="13.140625" customWidth="1"/>
+    <col min="4" max="6" width="14" customWidth="1"/>
+    <col min="7" max="7" width="9.140625" customWidth="1"/>
+    <col min="8" max="8" width="8.5703125" customWidth="1"/>
+    <col min="9" max="9" width="16.28515625" customWidth="1"/>
+    <col min="10" max="10" width="8.5703125" customWidth="1"/>
+    <col min="11" max="11" width="9.28515625" customWidth="1"/>
+    <col min="12" max="13" width="14" customWidth="1"/>
+    <col min="14" max="15" width="12" customWidth="1"/>
+    <col min="16" max="18" width="14" customWidth="1"/>
   </cols>
   <sheetData>
-    <row outlineLevel="0" r="1">
-      <c r="A1" s="2" t="inlineStr">
-        <is>
-          <t>ID</t>
-        </is>
-      </c>
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>COMPONY</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>FNAME</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>MIDDLE NAME</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>OTHER NAME</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>ADDRESS</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
-          <t>STATE</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>LGA</t>
-        </is>
-      </c>
-      <c r="I1" s="2" t="inlineStr">
-        <is>
-          <t>PHONE NUMBER</t>
-        </is>
-      </c>
-      <c r="J1" s="2" t="inlineStr">
-        <is>
-          <t>MALE</t>
-        </is>
-      </c>
-      <c r="K1" s="2" t="inlineStr">
-        <is>
-          <t>FEMALE</t>
-        </is>
-      </c>
-      <c r="L1" s="2" t="inlineStr">
-        <is>
-          <t>BSPA</t>
-        </is>
-      </c>
-      <c r="M1" s="2" t="inlineStr">
-        <is>
-          <t>BSPM</t>
-        </is>
-      </c>
-      <c r="N1" s="2" t="inlineStr">
-        <is>
-          <t>QUANTITY</t>
-        </is>
-      </c>
-      <c r="O1" s="2" t="inlineStr">
-        <is>
-          <t>QUQLITY</t>
-        </is>
-      </c>
-      <c r="P1" s="2" t="inlineStr">
-        <is>
-          <t>PRICE BOUGHT</t>
-        </is>
-      </c>
-      <c r="Q1" s="2" t="inlineStr">
-        <is>
-          <t>PRICE SOLD</t>
-        </is>
-      </c>
-      <c r="R1" s="2" t="inlineStr">
-        <is>
-          <t>EXPERIES</t>
-        </is>
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>17</v>
       </c>
     </row>
-    <row outlineLevel="0" r="2">
-      <c r="A2" s="4">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A2" s="2">
         <v>1</v>
       </c>
-      <c r="B2" s="5" t="inlineStr">
-        <is>
-          <t>HAFSAT COLLECTION</t>
-        </is>
-      </c>
-      <c r="C2" s="5" t="inlineStr">
-        <is>
-          <t>.</t>
-        </is>
-      </c>
-      <c r="D2" s="5" t="inlineStr">
-        <is>
-          <t>UMAR</t>
-        </is>
-      </c>
-      <c r="E2" s="5" t="inlineStr">
-        <is>
-          <t>BATURE</t>
-        </is>
-      </c>
-      <c r="F2" s="5" t="inlineStr">
-        <is>
-          <t>ZARIA CITY</t>
-        </is>
-      </c>
-      <c r="G2" s="6" t="inlineStr">
-        <is>
-          <t>KADUNA</t>
-        </is>
-      </c>
-      <c r="H2" s="6" t="inlineStr">
-        <is>
-          <t>ZARIA</t>
-        </is>
-      </c>
-      <c r="I2" s="7">
+      <c r="B2" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="I2" s="5">
         <v>86867990</v>
       </c>
-      <c r="J2" s="8" t="b">
+      <c r="J2" s="6" t="b">
         <v>0</v>
       </c>
-      <c r="K2" s="8" t="b">
+      <c r="K2" s="6" t="b">
         <v>1</v>
       </c>
-      <c r="L2" s="9">
+      <c r="L2" s="7">
         <v>5275765</v>
       </c>
-      <c r="M2" s="9">
+      <c r="M2" s="7">
         <v>7662080</v>
       </c>
-      <c r="N2" s="4">
+      <c r="N2" s="2">
         <v>345</v>
       </c>
-      <c r="O2" s="5" t="inlineStr">
-        <is>
-          <t>SPECIAL</t>
-        </is>
-      </c>
-      <c r="P2" s="9">
+      <c r="O2" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="P2" s="7">
         <v>1243</v>
       </c>
-      <c r="Q2" s="9">
+      <c r="Q2" s="7">
         <v>3987</v>
       </c>
-      <c r="R2" s="10">
+      <c r="R2" s="8">
         <v>49142</v>
       </c>
     </row>
-    <row outlineLevel="0" r="3">
-      <c r="A3" s="4">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A3" s="2">
         <v>2</v>
       </c>
-      <c r="B3" s="5" t="inlineStr">
-        <is>
-          <t>OKACHE BANKING</t>
-        </is>
-      </c>
-      <c r="C3" s="5" t="inlineStr">
-        <is>
-          <t>MARY</t>
-        </is>
-      </c>
-      <c r="D3" s="5" t="inlineStr">
-        <is>
-          <t>KELECHI</t>
-        </is>
-      </c>
-      <c r="E3" s="5" t="inlineStr">
-        <is>
-          <t>OKACHE</t>
-        </is>
-      </c>
-      <c r="F3" s="5" t="inlineStr">
-        <is>
-          <t>ABUJA</t>
-        </is>
-      </c>
-      <c r="G3" s="6" t="inlineStr">
-        <is>
-          <t>NIGER</t>
-        </is>
-      </c>
-      <c r="H3" s="6" t="inlineStr">
-        <is>
-          <t>BOSSO</t>
-        </is>
-      </c>
-      <c r="I3" s="7">
+      <c r="B3" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="I3" s="5">
         <v>85984909</v>
       </c>
-      <c r="J3" s="8" t="b">
+      <c r="J3" s="6" t="b">
         <v>0</v>
       </c>
-      <c r="K3" s="8" t="b">
+      <c r="K3" s="6" t="b">
         <v>1</v>
       </c>
-      <c r="L3" s="9">
+      <c r="L3" s="7">
         <v>9809128</v>
       </c>
-      <c r="M3" s="9">
+      <c r="M3" s="7">
         <v>68169822</v>
       </c>
-      <c r="N3" s="4">
+      <c r="N3" s="2">
         <v>869</v>
       </c>
-      <c r="O3" s="5" t="inlineStr">
-        <is>
-          <t>SPECIAL</t>
-        </is>
-      </c>
-      <c r="P3" s="9">
+      <c r="O3" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="P3" s="7">
         <v>6146</v>
       </c>
-      <c r="Q3" s="9">
+      <c r="Q3" s="7">
         <v>8371</v>
       </c>
-      <c r="R3" s="10">
+      <c r="R3" s="8">
         <v>47871</v>
       </c>
     </row>
-    <row outlineLevel="0" r="4">
-      <c r="A4" s="4">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A4" s="2">
         <v>3</v>
       </c>
-      <c r="B4" s="5" t="inlineStr">
-        <is>
-          <t>ORNIEY PRUDECTION</t>
-        </is>
-      </c>
-      <c r="C4" s="5" t="inlineStr">
-        <is>
-          <t>ZAINAB</t>
-        </is>
-      </c>
-      <c r="D4" s="5" t="inlineStr">
-        <is>
-          <t>UMAR</t>
-        </is>
-      </c>
-      <c r="E4" s="5" t="inlineStr">
-        <is>
-          <t>ABUBAKAR</t>
-        </is>
-      </c>
-      <c r="F4" s="5" t="inlineStr">
-        <is>
-          <t>WUSASA</t>
-        </is>
-      </c>
-      <c r="G4" s="6" t="inlineStr">
-        <is>
-          <t>KADUNA</t>
-        </is>
-      </c>
-      <c r="H4" s="6" t="inlineStr">
-        <is>
-          <t>ZARIA</t>
-        </is>
-      </c>
-      <c r="I4" s="7">
+      <c r="B4" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="I4" s="5">
         <v>802099438</v>
       </c>
-      <c r="J4" s="8" t="b">
+      <c r="J4" s="6" t="b">
         <v>0</v>
       </c>
-      <c r="K4" s="8" t="b">
+      <c r="K4" s="6" t="b">
         <v>1</v>
       </c>
-      <c r="L4" s="9">
+      <c r="L4" s="7">
         <v>872827</v>
       </c>
-      <c r="M4" s="9">
+      <c r="M4" s="7">
         <v>1010703</v>
       </c>
-      <c r="N4" s="4">
+      <c r="N4" s="2">
         <v>979</v>
       </c>
-      <c r="O4" s="5" t="inlineStr">
-        <is>
-          <t>SPECIAL</t>
-        </is>
-      </c>
-      <c r="P4" s="9">
+      <c r="O4" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="P4" s="7">
         <v>9921</v>
       </c>
-      <c r="Q4" s="9">
+      <c r="Q4" s="7">
         <v>73770</v>
       </c>
-      <c r="R4" s="10">
+      <c r="R4" s="8">
         <v>50077</v>
       </c>
     </row>
-    <row outlineLevel="0" r="5">
-      <c r="A5" s="4">
+    <row r="5" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+      <c r="A5" s="2">
         <v>4</v>
       </c>
-      <c r="B5" s="5" t="inlineStr">
-        <is>
-          <t>VARIETY BULIDING</t>
-        </is>
-      </c>
-      <c r="C5" s="5" t="inlineStr">
-        <is>
-          <t>KADIJA</t>
-        </is>
-      </c>
-      <c r="D5" s="5" t="inlineStr">
-        <is>
-          <t>ABDULMUTALLIB</t>
-        </is>
-      </c>
-      <c r="E5" s="5" t="inlineStr">
-        <is>
-          <t>VARIETY</t>
-        </is>
-      </c>
-      <c r="F5" s="5" t="inlineStr">
-        <is>
-          <t>DANDUME</t>
-        </is>
-      </c>
-      <c r="G5" s="6" t="inlineStr">
-        <is>
-          <t>KATSINA</t>
-        </is>
-      </c>
-      <c r="H5" s="6" t="inlineStr">
-        <is>
-          <t>FUNTUA</t>
-        </is>
-      </c>
-      <c r="I5" s="7">
+      <c r="B5" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="D5" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="H5" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="I5" s="5">
         <v>998087766</v>
       </c>
-      <c r="J5" s="8" t="b">
+      <c r="J5" s="6" t="b">
         <v>0</v>
       </c>
-      <c r="K5" s="8" t="b">
+      <c r="K5" s="6" t="b">
         <v>1</v>
       </c>
-      <c r="L5" s="9">
+      <c r="L5" s="7">
         <v>797403</v>
       </c>
-      <c r="M5" s="9">
+      <c r="M5" s="7">
         <v>86681510</v>
       </c>
-      <c r="N5" s="4">
+      <c r="N5" s="2">
         <v>976</v>
       </c>
-      <c r="O5" s="5" t="inlineStr">
-        <is>
-          <t>SPECIAL</t>
-        </is>
-      </c>
-      <c r="P5" s="9">
+      <c r="O5" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="P5" s="7">
         <v>1769</v>
       </c>
-      <c r="Q5" s="9">
+      <c r="Q5" s="7">
         <v>378797</v>
       </c>
-      <c r="R5" s="10">
+      <c r="R5" s="8">
         <v>47947</v>
       </c>
     </row>
-    <row outlineLevel="0" r="6">
-      <c r="A6" s="4">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A6" s="2">
         <v>5</v>
       </c>
-      <c r="B6" s="5" t="inlineStr">
-        <is>
-          <t>ZANGOS CLOTHING</t>
-        </is>
-      </c>
-      <c r="C6" s="5" t="inlineStr">
-        <is>
-          <t>HASSANA</t>
-        </is>
-      </c>
-      <c r="D6" s="5" t="inlineStr">
-        <is>
-          <t>MAHAMMUD</t>
-        </is>
-      </c>
-      <c r="E6" s="5" t="inlineStr">
-        <is>
-          <t>ZANGO</t>
-        </is>
-      </c>
-      <c r="F6" s="5" t="inlineStr">
-        <is>
-          <t>LAYOUT</t>
-        </is>
-      </c>
-      <c r="G6" s="6" t="inlineStr">
-        <is>
-          <t>KATSINA</t>
-        </is>
-      </c>
-      <c r="H6" s="6" t="inlineStr">
-        <is>
-          <t>BAKORI</t>
-        </is>
-      </c>
-      <c r="I6" s="7">
+      <c r="B6" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="H6" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="I6" s="5">
         <v>798787900</v>
       </c>
-      <c r="J6" s="8" t="b">
+      <c r="J6" s="6" t="b">
         <v>0</v>
       </c>
-      <c r="K6" s="8" t="b">
+      <c r="K6" s="6" t="b">
         <v>1</v>
       </c>
-      <c r="L6" s="9">
+      <c r="L6" s="7">
         <v>90830272</v>
       </c>
-      <c r="M6" s="9">
+      <c r="M6" s="7">
         <v>19908627</v>
       </c>
-      <c r="N6" s="4">
+      <c r="N6" s="2">
         <v>544</v>
       </c>
-      <c r="O6" s="5" t="inlineStr">
-        <is>
-          <t>SPECIAL</t>
-        </is>
-      </c>
-      <c r="P6" s="9">
+      <c r="O6" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="P6" s="7">
         <v>9887</v>
       </c>
-      <c r="Q6" s="9">
+      <c r="Q6" s="7">
         <v>97332</v>
       </c>
-      <c r="R6" s="10">
+      <c r="R6" s="8">
         <v>46009</v>
       </c>
     </row>
-    <row outlineLevel="0" r="7">
-      <c r="A7" s="4">
+    <row r="7" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+      <c r="A7" s="2">
         <v>6</v>
       </c>
-      <c r="B7" s="5" t="inlineStr">
-        <is>
-          <t>INNOSON INTERPRISE</t>
-        </is>
-      </c>
-      <c r="C7" s="5" t="inlineStr">
-        <is>
-          <t>INNOCENT</t>
-        </is>
-      </c>
-      <c r="D7" s="5" t="inlineStr">
-        <is>
-          <t>MOSES</t>
-        </is>
-      </c>
-      <c r="E7" s="5" t="inlineStr">
-        <is>
-          <t>GQSHEM</t>
-        </is>
-      </c>
-      <c r="F7" s="5" t="inlineStr">
-        <is>
-          <t>LERE  SAMINAKA</t>
-        </is>
-      </c>
-      <c r="G7" s="6" t="inlineStr">
-        <is>
-          <t>KATSINA</t>
-        </is>
-      </c>
-      <c r="H7" s="6" t="inlineStr">
-        <is>
-          <t>FUNTUA</t>
-        </is>
-      </c>
-      <c r="I7" s="7">
+      <c r="B7" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="H7" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="I7" s="5">
         <v>87767445</v>
       </c>
-      <c r="J7" s="8" t="b">
+      <c r="J7" s="6" t="b">
         <v>1</v>
       </c>
-      <c r="K7" s="8" t="b">
+      <c r="K7" s="6" t="b">
         <v>0</v>
       </c>
-      <c r="L7" s="9">
+      <c r="L7" s="7">
         <v>56657</v>
       </c>
-      <c r="M7" s="9">
+      <c r="M7" s="7">
         <v>56577</v>
       </c>
-      <c r="N7" s="4">
+      <c r="N7" s="2">
         <v>566</v>
       </c>
-      <c r="O7" s="5" t="inlineStr">
-        <is>
-          <t>zaria</t>
-        </is>
-      </c>
-      <c r="P7" s="9">
+      <c r="O7" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="P7" s="7">
         <v>455</v>
       </c>
-      <c r="Q7" s="9">
+      <c r="Q7" s="7">
         <v>6778</v>
       </c>
-      <c r="R7" s="10">
+      <c r="R7" s="8">
         <v>45847</v>
       </c>
     </row>
-    <row outlineLevel="0" r="8">
-      <c r="A8" s="4">
+    <row r="8" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+      <c r="A8" s="2">
         <v>7</v>
       </c>
-      <c r="B8" s="5" t="inlineStr">
-        <is>
-          <t>INNOSON</t>
-        </is>
-      </c>
-      <c r="C8" s="5" t="inlineStr">
-        <is>
-          <t>INNOCENT</t>
-        </is>
-      </c>
-      <c r="D8" s="5" t="inlineStr">
-        <is>
-          <t>MOSES</t>
-        </is>
-      </c>
-      <c r="E8" s="5" t="inlineStr">
-        <is>
-          <t>GOSHEM</t>
-        </is>
-      </c>
-      <c r="F8" s="5" t="inlineStr">
-        <is>
-          <t>YAR KASUWA</t>
-        </is>
-      </c>
-      <c r="G8" s="6" t="inlineStr">
-        <is>
-          <t>KATSINA</t>
-        </is>
-      </c>
-      <c r="H8" s="6" t="inlineStr">
-        <is>
-          <t>ZARIA</t>
-        </is>
-      </c>
-      <c r="I8" s="7">
+      <c r="B8" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="G8" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="H8" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="I8" s="5">
         <v>912222222</v>
       </c>
-      <c r="J8" s="8" t="b">
+      <c r="J8" s="6" t="b">
         <v>1</v>
       </c>
-      <c r="K8" s="8" t="b">
+      <c r="K8" s="6" t="b">
         <v>0</v>
       </c>
-      <c r="L8" s="9">
+      <c r="L8" s="7">
         <v>98686788</v>
       </c>
-      <c r="M8" s="9">
+      <c r="M8" s="7">
         <v>869696</v>
       </c>
-      <c r="N8" s="4">
+      <c r="N8" s="2">
         <v>1000</v>
       </c>
-      <c r="O8" s="5" t="inlineStr">
-        <is>
-          <t>abakkili made</t>
-        </is>
-      </c>
-      <c r="P8" s="9">
+      <c r="O8" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="P8" s="7">
         <v>87777</v>
       </c>
-      <c r="Q8" s="9">
+      <c r="Q8" s="7">
         <v>10000</v>
       </c>
-      <c r="R8" s="10">
+      <c r="R8" s="8">
         <v>55097</v>
       </c>
     </row>
